--- a/one folder to rule them all/Hlavna aplikacia/build/login.dist/CPINT.xlsx
+++ b/one folder to rule them all/Hlavna aplikacia/build/login.dist/CPINT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LastMile\one folder to rule them all\Hlavna aplikacia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACCFD28-3A97-4B5B-BD1E-460EB5B26DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68921340-C69F-41D2-95CE-778E55283F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="1425" windowWidth="28800" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CP" sheetId="30" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>PČ</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>xxx, +421 9..., xxx@lastmile.sk</t>
+  </si>
+  <si>
+    <t>Cena za 1 km</t>
   </si>
 </sst>
 </file>
@@ -1823,6 +1826,75 @@
     <xf numFmtId="0" fontId="27" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="33" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="34" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="21" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1846,75 +1918,6 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="33" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="34" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -2431,7 +2434,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M22" sqref="M22:Q22"/>
+      <selection pane="bottomLeft" activeCell="P20" sqref="P20:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -2477,10 +2480,10 @@
       <c r="A3" s="1"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -2490,10 +2493,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="26"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
@@ -2514,73 +2517,73 @@
     </row>
     <row r="6" spans="1:20" outlineLevel="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="132"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="124"/>
     </row>
     <row r="7" spans="1:20" outlineLevel="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="135"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="127"/>
     </row>
     <row r="8" spans="1:20" outlineLevel="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="135"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="127"/>
     </row>
     <row r="9" spans="1:20" ht="31.5" customHeight="1" outlineLevel="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="138"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="130"/>
     </row>
     <row r="10" spans="1:20" ht="19.7" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="141"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" outlineLevel="1" thickBot="1">
       <c r="A11" s="2"/>
@@ -2804,17 +2807,19 @@
         <v>#REF!</v>
       </c>
       <c r="L20" s="9"/>
-      <c r="M20" s="142" t="s">
+      <c r="M20" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="144" t="s">
+      <c r="N20" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="144" t="s">
+      <c r="O20" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="142" t="s">
+      <c r="P20" s="138" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="134" t="s">
         <v>39</v>
       </c>
       <c r="T20" s="9"/>
@@ -2837,11 +2842,11 @@
         <v>#REF!</v>
       </c>
       <c r="L21" s="9"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="145"/>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="142"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="134"/>
       <c r="R21" s="11"/>
       <c r="T21" s="9"/>
     </row>
@@ -2905,12 +2910,12 @@
       <c r="K24" s="79"/>
       <c r="L24" s="9"/>
       <c r="M24" s="13"/>
-      <c r="N24" s="127" t="s">
+      <c r="N24" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="O24" s="128"/>
-      <c r="P24" s="128"/>
-      <c r="Q24" s="128"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
       <c r="R24" s="13"/>
       <c r="T24" s="9"/>
     </row>
@@ -3067,16 +3072,16 @@
       <c r="J30" s="70"/>
       <c r="K30" s="71"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="116" t="s">
+      <c r="M30" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="118" t="s">
+      <c r="N30" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="O30" s="120" t="s">
+      <c r="O30" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="P30" s="122" t="s">
+      <c r="P30" s="145" t="s">
         <v>17</v>
       </c>
       <c r="T30" s="9"/>
@@ -3098,10 +3103,10 @@
       <c r="J31" s="70"/>
       <c r="K31" s="71"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="123"/>
+      <c r="M31" s="140"/>
+      <c r="N31" s="142"/>
+      <c r="O31" s="144"/>
+      <c r="P31" s="146"/>
       <c r="T31" s="9"/>
     </row>
     <row r="32" spans="2:20" ht="15" customHeight="1" thickBot="1">
@@ -3162,10 +3167,10 @@
       <c r="N33" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="O33" s="120" t="s">
+      <c r="O33" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="P33" s="122" t="s">
+      <c r="P33" s="145" t="s">
         <v>17</v>
       </c>
       <c r="T33" s="9"/>
@@ -3189,8 +3194,8 @@
       <c r="L34" s="9"/>
       <c r="M34" s="113"/>
       <c r="N34" s="115"/>
-      <c r="O34" s="121"/>
-      <c r="P34" s="123"/>
+      <c r="O34" s="144"/>
+      <c r="P34" s="146"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="T34" s="9"/>
@@ -3266,7 +3271,7 @@
       </c>
       <c r="K37" s="87">
         <f ca="1">TODAY()</f>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="73"/>
@@ -3283,16 +3288,16 @@
       <c r="K38" s="48"/>
     </row>
     <row r="39" spans="2:20" ht="19.5">
-      <c r="B39" s="124"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="125"/>
-      <c r="K39" s="126"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="118"/>
     </row>
     <row r="40" spans="2:20" ht="15" customHeight="1">
       <c r="B40" s="47"/>
@@ -3336,6 +3341,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P33:P34"/>
     <mergeCell ref="B39:K39"/>
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="D3:G4"/>
@@ -3352,7 +3358,6 @@
     <mergeCell ref="O30:O31"/>
     <mergeCell ref="P30:P31"/>
     <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/one folder to rule them all/Hlavna aplikacia/build/login.dist/CPINT.xlsx
+++ b/one folder to rule them all/Hlavna aplikacia/build/login.dist/CPINT.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="Tento_zošit"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LastMile\one folder to rule them all\Hlavna aplikacia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slaso\Documents\GitHub\one folder to rule them all\Hlavna aplikacia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68921340-C69F-41D2-95CE-778E55283F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="CP" sheetId="30" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="AND">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CP!$B$2:$K$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CP!$B$2:$K$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>PČ</t>
   </si>
@@ -112,33 +111,6 @@
   </si>
   <si>
     <t>Predaj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Záručná doba na pasívne časti systému (kabeláž, rozvádzače, konektory) je 60mesiacov. </t>
-  </si>
-  <si>
-    <t>Záručná doba na aktívne zariadenia je 24mesiacov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Záručná doba na batérie a napájacie zdroje je 12mesiacov. </t>
-  </si>
-  <si>
-    <t>Stavebná pripravenosť stien, stropov, podláh a iných stavebných konštrukcií nie je predmetom riešenia cenovej ponuky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V cenovej ponuke je zahrnutá výhradne základná konfigurácia, test a oživenie zariadení. Dodatočné nastavenia špeciálnych požiadaviek budú spoplatnené sumou 50€/hod. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Množstvo kabeláže a inštalačného materiálu je orientačné, faktúrovaná bude ich skutočná spotreba. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tento dokument je duševným vlastníctvom autorov a podlieha autorskému zákonu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O termíne ukončenia inštalačných prác je nutné informovať sa po záväznom objednaní (doba bude určena podľa aktuálne dostupných kapacít technikov).  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre uplatnenie si záruky je objednávateľ povinný vyzvať spol. LAST MILE spol. s r.o. k predloženiu plánu pravidelných servisných prehliadok. </t>
   </si>
   <si>
     <t>Koeficient 
@@ -196,9 +168,6 @@
   </si>
   <si>
     <t>SPOLU bez DPH [€]:</t>
-  </si>
-  <si>
-    <t>Platnosť cenovej ponuky: dd.mm.rrrr</t>
   </si>
   <si>
     <t>Skúška správnosti</t>
@@ -213,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; Sk&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _S_k"/>
@@ -768,7 +737,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1345,26 +1314,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1372,17 +1321,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1409,43 +1347,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1525,7 +1426,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1663,9 +1564,6 @@
     <xf numFmtId="0" fontId="26" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1685,15 +1583,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="40" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="47" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="48" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="49" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1739,7 +1628,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="43" fillId="0" borderId="50" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="43" fillId="0" borderId="47" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1793,15 +1682,6 @@
     <xf numFmtId="168" fontId="41" fillId="31" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="53" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="54" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="55" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1826,6 +1706,12 @@
     <xf numFmtId="0" fontId="27" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="33" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1895,10 +1781,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="21" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="21" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1913,75 +1799,69 @@
     <xf numFmtId="0" fontId="48" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="61">
-    <cellStyle name="20 % - zvýraznenie1 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20 % - zvýraznenie2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20 % - zvýraznenie3 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20 % - zvýraznenie4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20 % - zvýraznenie5 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20 % - zvýraznenie6 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40 % - zvýraznenie1 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40 % - zvýraznenie2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40 % - zvýraznenie3 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40 % - zvýraznenie4 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40 % - zvýraznenie5 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40 % - zvýraznenie6 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60 % - zvýraznenie1 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60 % - zvýraznenie2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60 % - zvýraznenie3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60 % - zvýraznenie4 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60 % - zvýraznenie5 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60 % - zvýraznenie6 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="čiarky 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Dobrá 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Hypertextové prepojenie" xfId="59" builtinId="8"/>
-    <cellStyle name="Hypertextové prepojenie 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Kontrolná bunka 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="lehký dolní okraj" xfId="36" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Mena 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="nadpis" xfId="38" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Nadpis 1 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Nadpis 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Nadpis 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Nadpis 4 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Neutrálna 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
-    <cellStyle name="Normálna 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Normálna 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Normálna 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Normálna 4" xfId="60" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Normálna 6" xfId="12" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Normálna 7" xfId="13" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Normálne 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="normálne 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Normálne 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Normálne 4" xfId="10" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Normálne 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="normální 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="normální_POL.XLS" xfId="6" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Poznámka 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Prepojená bunka 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Spolu 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Text upozornenia 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Vstup 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Výpočet 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Výstup 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Vysvetľujúci text 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Zlá 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Zvýraznenie1 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Zvýraznenie2 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Zvýraznenie3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Zvýraznenie4 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Zvýraznenie5 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Zvýraznenie6 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20 % - zvýraznenie1 2" xfId="16"/>
+    <cellStyle name="20 % - zvýraznenie2 2" xfId="17"/>
+    <cellStyle name="20 % - zvýraznenie3 2" xfId="18"/>
+    <cellStyle name="20 % - zvýraznenie4 2" xfId="19"/>
+    <cellStyle name="20 % - zvýraznenie5 2" xfId="20"/>
+    <cellStyle name="20 % - zvýraznenie6 2" xfId="21"/>
+    <cellStyle name="40 % - zvýraznenie1 2" xfId="22"/>
+    <cellStyle name="40 % - zvýraznenie2 2" xfId="23"/>
+    <cellStyle name="40 % - zvýraznenie3 2" xfId="24"/>
+    <cellStyle name="40 % - zvýraznenie4 2" xfId="25"/>
+    <cellStyle name="40 % - zvýraznenie5 2" xfId="26"/>
+    <cellStyle name="40 % - zvýraznenie6 2" xfId="27"/>
+    <cellStyle name="60 % - zvýraznenie1 2" xfId="28"/>
+    <cellStyle name="60 % - zvýraznenie2 2" xfId="29"/>
+    <cellStyle name="60 % - zvýraznenie3 2" xfId="30"/>
+    <cellStyle name="60 % - zvýraznenie4 2" xfId="31"/>
+    <cellStyle name="60 % - zvýraznenie5 2" xfId="32"/>
+    <cellStyle name="60 % - zvýraznenie6 2" xfId="33"/>
+    <cellStyle name="čiarky 2" xfId="7"/>
+    <cellStyle name="Dobrá 2" xfId="34"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8"/>
+    <cellStyle name="Hypertextové prepojenie 2" xfId="5"/>
+    <cellStyle name="Kontrolná bunka 2" xfId="35"/>
+    <cellStyle name="lehký dolní okraj" xfId="36"/>
+    <cellStyle name="Mena 2" xfId="37"/>
+    <cellStyle name="nadpis" xfId="38"/>
+    <cellStyle name="Nadpis 1 2" xfId="39"/>
+    <cellStyle name="Nadpis 2 2" xfId="40"/>
+    <cellStyle name="Nadpis 3 2" xfId="41"/>
+    <cellStyle name="Nadpis 4 2" xfId="42"/>
+    <cellStyle name="Neutrálna 2" xfId="43"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="8"/>
+    <cellStyle name="Normálna 2" xfId="2"/>
+    <cellStyle name="Normálna 2 2" xfId="14"/>
+    <cellStyle name="Normálna 3" xfId="15"/>
+    <cellStyle name="Normálna 4" xfId="60"/>
+    <cellStyle name="Normálna 6" xfId="12"/>
+    <cellStyle name="Normálna 7" xfId="13"/>
+    <cellStyle name="Normálne 2" xfId="1"/>
+    <cellStyle name="normálne 2 2" xfId="9"/>
+    <cellStyle name="Normálne 3" xfId="3"/>
+    <cellStyle name="Normálne 4" xfId="10"/>
+    <cellStyle name="Normálne 5" xfId="11"/>
+    <cellStyle name="normální 2" xfId="4"/>
+    <cellStyle name="normální_POL.XLS" xfId="6"/>
+    <cellStyle name="Poznámka 2" xfId="44"/>
+    <cellStyle name="Prepojená bunka 2" xfId="45"/>
+    <cellStyle name="Spolu 2" xfId="46"/>
+    <cellStyle name="Text upozornenia 2" xfId="47"/>
+    <cellStyle name="Vstup 2" xfId="48"/>
+    <cellStyle name="Výpočet 2" xfId="49"/>
+    <cellStyle name="Výstup 2" xfId="50"/>
+    <cellStyle name="Vysvetľujúci text 2" xfId="51"/>
+    <cellStyle name="Zlá 2" xfId="52"/>
+    <cellStyle name="Zvýraznenie1 2" xfId="53"/>
+    <cellStyle name="Zvýraznenie2 2" xfId="54"/>
+    <cellStyle name="Zvýraznenie3 2" xfId="55"/>
+    <cellStyle name="Zvýraznenie4 2" xfId="56"/>
+    <cellStyle name="Zvýraznenie5 2" xfId="57"/>
+    <cellStyle name="Zvýraznenie6 2" xfId="58"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2030,7 +1910,7 @@
         <xdr:cNvPr id="14" name="Obrázok 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7B07B5-FAE2-FB54-2448-E1CCD3E523B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB7B07B5-FAE2-FB54-2448-E1CCD3E523B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,21 +1947,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>248</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>169678</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>169677</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Obrázok 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94490EEA-3500-4A23-96AC-19B01E18C0FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94490EEA-3500-4A23-96AC-19B01E18C0FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,7 +2010,7 @@
         <xdr:cNvPr id="4" name="Obrázok 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F91FD3D-CBAA-C8DC-12EB-C06FEB5CD61F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F91FD3D-CBAA-C8DC-12EB-C06FEB5CD61F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,15 +2306,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hárok1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P20" sqref="P20:P21"/>
+      <pane ySplit="12" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -2480,10 +2360,10 @@
       <c r="A3" s="1"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -2493,10 +2373,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="26"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
@@ -2517,73 +2397,73 @@
     </row>
     <row r="6" spans="1:20" outlineLevel="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="124"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="1:20" outlineLevel="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="127"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:20" outlineLevel="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="127"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="122"/>
     </row>
     <row r="9" spans="1:20" ht="31.5" customHeight="1" outlineLevel="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="128" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="130"/>
+      <c r="B9" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="125"/>
     </row>
     <row r="10" spans="1:20" ht="19.7" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="B10" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="133"/>
+      <c r="B10" s="126" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="128"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" outlineLevel="1" thickBot="1">
       <c r="A11" s="2"/>
@@ -2631,25 +2511,25 @@
         <v>4</v>
       </c>
       <c r="L12" s="12"/>
-      <c r="M12" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="100" t="s">
+      <c r="M12" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="S12" s="100" t="s">
+      <c r="R12" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="96" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2676,16 +2556,16 @@
       <c r="T13" s="17"/>
     </row>
     <row r="14" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="111"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="104"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -2713,18 +2593,18 @@
     <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B16" s="57"/>
       <c r="C16" s="58"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="64"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="54" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G16" s="55" t="e">
         <f>#REF!+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H16" s="74"/>
+      <c r="H16" s="70"/>
       <c r="I16" s="54" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J16" s="55" t="e">
         <f>#REF!+#REF!+#REF!</f>
@@ -2752,37 +2632,37 @@
       <c r="T17" s="9"/>
     </row>
     <row r="18" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="75" t="s">
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="71" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="9"/>
       <c r="T18" s="9"/>
     </row>
     <row r="19" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B19" s="88" t="e">
+      <c r="B19" s="84" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="76" t="e">
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="72" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2790,574 +2670,415 @@
       <c r="T19" s="9"/>
     </row>
     <row r="20" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B20" s="88" t="e">
+      <c r="B20" s="84" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="76" t="e">
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="72" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L20" s="9"/>
-      <c r="M20" s="134" t="s">
-        <v>38</v>
-      </c>
-      <c r="N20" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" s="138" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q20" s="134" t="s">
-        <v>39</v>
-      </c>
       <c r="T20" s="9"/>
     </row>
     <row r="21" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="88" t="e">
+      <c r="B21" s="84" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="76" t="e">
+      <c r="C21" s="85"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="72" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L21" s="9"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="138"/>
-      <c r="Q21" s="134"/>
-      <c r="R21" s="11"/>
       <c r="T21" s="9"/>
     </row>
     <row r="22" spans="2:20" ht="18.75" thickBot="1">
       <c r="B22" s="57"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" s="65" t="e">
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="64" t="e">
         <f>SUM(K19:K21)</f>
         <v>#REF!</v>
       </c>
       <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
       <c r="T22" s="9"/>
     </row>
     <row r="23" spans="2:20" ht="18.75" thickBot="1">
       <c r="B23" s="60"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="67"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
       <c r="T23" s="9"/>
     </row>
     <row r="24" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="79"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="75"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="119" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="120"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="13"/>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" spans="2:20" ht="15" customHeight="1">
-      <c r="B25" s="61">
-        <v>1</v>
-      </c>
-      <c r="C25" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+    <row r="25" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B25" s="46"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="68"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S25" s="9"/>
       <c r="T25" s="9"/>
     </row>
-    <row r="26" spans="2:20" ht="15" customHeight="1">
-      <c r="B26" s="61">
-        <f>B25+1</f>
-        <v>2</v>
-      </c>
-      <c r="C26" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="71"/>
+    <row r="26" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="78"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="8"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
     </row>
-    <row r="27" spans="2:20" ht="15" customHeight="1">
-      <c r="B27" s="61">
-        <f>B26+1</f>
-        <v>3</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="102"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="8"/>
+    <row r="27" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B27" s="79"/>
+      <c r="C27" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="83">
+        <f ca="1">TODAY()</f>
+        <v>45921</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
     </row>
-    <row r="28" spans="2:20" ht="15" customHeight="1">
-      <c r="B28" s="61">
-        <f t="shared" ref="B28:B34" si="0">B27+1</f>
+    <row r="28" spans="2:20">
+      <c r="B28" s="47"/>
+      <c r="K28" s="48"/>
+    </row>
+    <row r="29" spans="2:20" ht="19.5">
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="113"/>
+    </row>
+    <row r="30" spans="2:20" ht="15" customHeight="1">
+      <c r="B30" s="47"/>
+      <c r="K30" s="48"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="47"/>
+      <c r="K31" s="48"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="47"/>
+      <c r="K32" s="48"/>
+    </row>
+    <row r="33" spans="2:18" ht="15" customHeight="1">
+      <c r="B33" s="47"/>
+      <c r="K33" s="48"/>
+    </row>
+    <row r="34" spans="2:18" ht="15" customHeight="1">
+      <c r="B34" s="47"/>
+      <c r="K34" s="48"/>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35" s="47"/>
+      <c r="K35" s="48"/>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="B36" s="47"/>
+      <c r="K36" s="48"/>
+    </row>
+    <row r="37" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="51"/>
+    </row>
+    <row r="42" spans="2:18">
+      <c r="M42" s="129" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="131" t="s">
+        <v>27</v>
+      </c>
+      <c r="O42" s="131" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" s="133" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q42" s="129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18">
+      <c r="M43" s="130"/>
+      <c r="N43" s="132"/>
+      <c r="O43" s="132"/>
+      <c r="P43" s="133"/>
+      <c r="Q43" s="129"/>
+      <c r="R43" s="11"/>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+    </row>
+    <row r="45" spans="2:18">
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+    </row>
+    <row r="46" spans="2:18">
+      <c r="M46" s="13"/>
+      <c r="N46" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="O46" s="115"/>
+      <c r="P46" s="115"/>
+      <c r="Q46" s="115"/>
+      <c r="R46" s="13"/>
+    </row>
+    <row r="47" spans="2:18">
+      <c r="M47" s="13"/>
+      <c r="N47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-    </row>
-    <row r="29" spans="2:20" ht="15" customHeight="1" thickBot="1">
-      <c r="B29" s="61">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="8"/>
-      <c r="T29" s="9"/>
-    </row>
-    <row r="30" spans="2:20" ht="15" customHeight="1">
-      <c r="B30" s="61">
-        <v>6</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="139" t="s">
+      <c r="R47" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18">
+      <c r="M48" s="5"/>
+      <c r="N48" s="97"/>
+      <c r="O48" s="98"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="8"/>
+    </row>
+    <row r="49" spans="13:18">
+      <c r="M49" s="5"/>
+      <c r="N49" s="97"/>
+      <c r="O49" s="98"/>
+      <c r="P49" s="99"/>
+      <c r="Q49" s="99"/>
+      <c r="R49" s="8"/>
+    </row>
+    <row r="50" spans="13:18">
+      <c r="M50" s="5"/>
+      <c r="N50" s="97"/>
+      <c r="O50" s="98"/>
+      <c r="P50" s="99"/>
+      <c r="Q50" s="99"/>
+      <c r="R50" s="8"/>
+    </row>
+    <row r="51" spans="13:18" ht="15.75" thickBot="1">
+      <c r="M51" s="5"/>
+      <c r="N51" s="97"/>
+      <c r="O51" s="98"/>
+      <c r="P51" s="99"/>
+      <c r="Q51" s="99"/>
+      <c r="R51" s="8"/>
+    </row>
+    <row r="52" spans="13:18">
+      <c r="M52" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="141" t="s">
-        <v>44</v>
-      </c>
-      <c r="O30" s="143" t="s">
-        <v>40</v>
-      </c>
-      <c r="P30" s="145" t="s">
+      <c r="N52" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="O52" s="138" t="s">
+        <v>31</v>
+      </c>
+      <c r="P52" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="T30" s="9"/>
-    </row>
-    <row r="31" spans="2:20" ht="15" customHeight="1">
-      <c r="B31" s="61">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C31" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="140"/>
-      <c r="N31" s="142"/>
-      <c r="O31" s="144"/>
-      <c r="P31" s="146"/>
-      <c r="T31" s="9"/>
-    </row>
-    <row r="32" spans="2:20" ht="15" customHeight="1" thickBot="1">
-      <c r="B32" s="61">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="104" t="e">
+    </row>
+    <row r="53" spans="13:18">
+      <c r="M53" s="135"/>
+      <c r="N53" s="137"/>
+      <c r="O53" s="139"/>
+      <c r="P53" s="110"/>
+    </row>
+    <row r="54" spans="13:18" ht="16.5" thickBot="1">
+      <c r="M54" s="100" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N32" s="104" t="e">
+      <c r="N54" s="100" t="e">
         <f>G16</f>
         <v>#REF!</v>
       </c>
-      <c r="O32" s="14" t="e">
-        <f>N32-M32</f>
+      <c r="O54" s="14" t="e">
+        <f>N54-M54</f>
         <v>#REF!</v>
       </c>
-      <c r="P32" s="15" t="e">
-        <f>O32/N32</f>
+      <c r="P54" s="15" t="e">
+        <f>O54/N54</f>
         <v>#REF!</v>
       </c>
-      <c r="T32" s="9"/>
-    </row>
-    <row r="33" spans="2:20" ht="15" customHeight="1">
-      <c r="B33" s="61">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C33" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="112" t="s">
+    </row>
+    <row r="55" spans="13:18" ht="26.25">
+      <c r="M55" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="N33" s="114" t="s">
+      <c r="N55" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="O33" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="P33" s="145" t="s">
+      <c r="O55" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="P55" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="T33" s="9"/>
-    </row>
-    <row r="34" spans="2:20" ht="15" customHeight="1">
-      <c r="B34" s="61">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C34" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="115"/>
-      <c r="O34" s="144"/>
-      <c r="P34" s="146"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="T34" s="9"/>
-    </row>
-    <row r="35" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B35" s="46"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="97">
-        <f>Q26+Q27+Q28+Q29</f>
+    </row>
+    <row r="56" spans="13:18">
+      <c r="M56" s="106"/>
+      <c r="N56" s="108"/>
+      <c r="O56" s="139"/>
+      <c r="P56" s="110"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+    </row>
+    <row r="57" spans="13:18" ht="16.5" thickBot="1">
+      <c r="M57" s="93">
+        <f>Q48+Q49+Q50+Q51</f>
         <v>0</v>
       </c>
-      <c r="N35" s="98" t="e">
+      <c r="N57" s="94" t="e">
         <f>J16</f>
         <v>#REF!</v>
       </c>
-      <c r="O35" s="14" t="e">
-        <f>N35-M35</f>
+      <c r="O57" s="14" t="e">
+        <f>N57-M57</f>
         <v>#REF!</v>
       </c>
-      <c r="P35" s="15" t="e">
-        <f>O35/N35</f>
+      <c r="P57" s="15" t="e">
+        <f>O57/N57</f>
         <v>#REF!</v>
       </c>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="T35" s="9"/>
-    </row>
-    <row r="36" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-    </row>
-    <row r="37" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B37" s="83"/>
-      <c r="C37" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="K37" s="87">
-        <f ca="1">TODAY()</f>
-        <v>45919</v>
-      </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-    </row>
-    <row r="38" spans="2:20">
-      <c r="B38" s="47"/>
-      <c r="K38" s="48"/>
-    </row>
-    <row r="39" spans="2:20" ht="19.5">
-      <c r="B39" s="116"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="117"/>
-      <c r="K39" s="118"/>
-    </row>
-    <row r="40" spans="2:20" ht="15" customHeight="1">
-      <c r="B40" s="47"/>
-      <c r="K40" s="48"/>
-    </row>
-    <row r="41" spans="2:20">
-      <c r="B41" s="47"/>
-      <c r="K41" s="48"/>
-    </row>
-    <row r="42" spans="2:20">
-      <c r="B42" s="47"/>
-      <c r="K42" s="48"/>
-    </row>
-    <row r="43" spans="2:20" ht="15" customHeight="1">
-      <c r="B43" s="47"/>
-      <c r="K43" s="48"/>
-    </row>
-    <row r="44" spans="2:20" ht="15" customHeight="1">
-      <c r="B44" s="47"/>
-      <c r="K44" s="48"/>
-    </row>
-    <row r="45" spans="2:20">
-      <c r="B45" s="47"/>
-      <c r="K45" s="48"/>
-    </row>
-    <row r="46" spans="2:20">
-      <c r="B46" s="47"/>
-      <c r="K46" s="48"/>
-    </row>
-    <row r="47" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B47" s="49"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="51"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="N46:Q46"/>
     <mergeCell ref="D3:G4"/>
     <mergeCell ref="B6:K8"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="B10:K10"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/one folder to rule them all/Hlavna aplikacia/build/login.dist/CPINT.xlsx
+++ b/one folder to rule them all/Hlavna aplikacia/build/login.dist/CPINT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="Tento_zošit"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slaso\Documents\GitHub\one folder to rule them all\Hlavna aplikacia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LastMile\one folder to rule them all\Hlavna aplikacia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD3A46C-5BBE-4B83-BB76-13755701FFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15345"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CP" sheetId="30" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <definedName name="AND">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">CP!$B$2:$K$27</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; Sk&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _S_k"/>
@@ -1426,7 +1427,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1588,7 +1589,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1706,6 +1706,12 @@
     <xf numFmtId="0" fontId="27" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1793,75 +1799,69 @@
     <xf numFmtId="0" fontId="48" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="61">
-    <cellStyle name="20 % - zvýraznenie1 2" xfId="16"/>
-    <cellStyle name="20 % - zvýraznenie2 2" xfId="17"/>
-    <cellStyle name="20 % - zvýraznenie3 2" xfId="18"/>
-    <cellStyle name="20 % - zvýraznenie4 2" xfId="19"/>
-    <cellStyle name="20 % - zvýraznenie5 2" xfId="20"/>
-    <cellStyle name="20 % - zvýraznenie6 2" xfId="21"/>
-    <cellStyle name="40 % - zvýraznenie1 2" xfId="22"/>
-    <cellStyle name="40 % - zvýraznenie2 2" xfId="23"/>
-    <cellStyle name="40 % - zvýraznenie3 2" xfId="24"/>
-    <cellStyle name="40 % - zvýraznenie4 2" xfId="25"/>
-    <cellStyle name="40 % - zvýraznenie5 2" xfId="26"/>
-    <cellStyle name="40 % - zvýraznenie6 2" xfId="27"/>
-    <cellStyle name="60 % - zvýraznenie1 2" xfId="28"/>
-    <cellStyle name="60 % - zvýraznenie2 2" xfId="29"/>
-    <cellStyle name="60 % - zvýraznenie3 2" xfId="30"/>
-    <cellStyle name="60 % - zvýraznenie4 2" xfId="31"/>
-    <cellStyle name="60 % - zvýraznenie5 2" xfId="32"/>
-    <cellStyle name="60 % - zvýraznenie6 2" xfId="33"/>
-    <cellStyle name="čiarky 2" xfId="7"/>
-    <cellStyle name="Dobrá 2" xfId="34"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8"/>
-    <cellStyle name="Hypertextové prepojenie 2" xfId="5"/>
-    <cellStyle name="Kontrolná bunka 2" xfId="35"/>
-    <cellStyle name="lehký dolní okraj" xfId="36"/>
-    <cellStyle name="Mena 2" xfId="37"/>
-    <cellStyle name="nadpis" xfId="38"/>
-    <cellStyle name="Nadpis 1 2" xfId="39"/>
-    <cellStyle name="Nadpis 2 2" xfId="40"/>
-    <cellStyle name="Nadpis 3 2" xfId="41"/>
-    <cellStyle name="Nadpis 4 2" xfId="42"/>
-    <cellStyle name="Neutrálna 2" xfId="43"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="8"/>
-    <cellStyle name="Normálna 2" xfId="2"/>
-    <cellStyle name="Normálna 2 2" xfId="14"/>
-    <cellStyle name="Normálna 3" xfId="15"/>
-    <cellStyle name="Normálna 4" xfId="60"/>
-    <cellStyle name="Normálna 6" xfId="12"/>
-    <cellStyle name="Normálna 7" xfId="13"/>
-    <cellStyle name="Normálne 2" xfId="1"/>
-    <cellStyle name="normálne 2 2" xfId="9"/>
-    <cellStyle name="Normálne 3" xfId="3"/>
-    <cellStyle name="Normálne 4" xfId="10"/>
-    <cellStyle name="Normálne 5" xfId="11"/>
-    <cellStyle name="normální 2" xfId="4"/>
-    <cellStyle name="normální_POL.XLS" xfId="6"/>
-    <cellStyle name="Poznámka 2" xfId="44"/>
-    <cellStyle name="Prepojená bunka 2" xfId="45"/>
-    <cellStyle name="Spolu 2" xfId="46"/>
-    <cellStyle name="Text upozornenia 2" xfId="47"/>
-    <cellStyle name="Vstup 2" xfId="48"/>
-    <cellStyle name="Výpočet 2" xfId="49"/>
-    <cellStyle name="Výstup 2" xfId="50"/>
-    <cellStyle name="Vysvetľujúci text 2" xfId="51"/>
-    <cellStyle name="Zlá 2" xfId="52"/>
-    <cellStyle name="Zvýraznenie1 2" xfId="53"/>
-    <cellStyle name="Zvýraznenie2 2" xfId="54"/>
-    <cellStyle name="Zvýraznenie3 2" xfId="55"/>
-    <cellStyle name="Zvýraznenie4 2" xfId="56"/>
-    <cellStyle name="Zvýraznenie5 2" xfId="57"/>
-    <cellStyle name="Zvýraznenie6 2" xfId="58"/>
+    <cellStyle name="20 % - zvýraznenie1 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20 % - zvýraznenie2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20 % - zvýraznenie3 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20 % - zvýraznenie4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20 % - zvýraznenie5 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20 % - zvýraznenie6 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40 % - zvýraznenie1 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40 % - zvýraznenie2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40 % - zvýraznenie3 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40 % - zvýraznenie4 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40 % - zvýraznenie5 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40 % - zvýraznenie6 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60 % - zvýraznenie1 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60 % - zvýraznenie2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60 % - zvýraznenie3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60 % - zvýraznenie4 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60 % - zvýraznenie5 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60 % - zvýraznenie6 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="čiarky 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Dobrá 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Hypertextové prepojenie" xfId="59" builtinId="8"/>
+    <cellStyle name="Hypertextové prepojenie 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Kontrolná bunka 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="lehký dolní okraj" xfId="36" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Mena 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="nadpis" xfId="38" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Nadpis 1 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Nadpis 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Nadpis 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Nadpis 4 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Neutrálna 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normálna 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normálna 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normálna 4" xfId="60" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normálna 6" xfId="12" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normálna 7" xfId="13" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normálne 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="normálne 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normálne 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normálne 4" xfId="10" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normálne 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="normální 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="normální_POL.XLS" xfId="6" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Poznámka 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Prepojená bunka 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Spolu 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Text upozornenia 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Vstup 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Výpočet 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Výstup 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Vysvetľujúci text 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Zlá 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Zvýraznenie1 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Zvýraznenie2 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Zvýraznenie3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Zvýraznenie4 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Zvýraznenie5 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Zvýraznenie6 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1910,7 +1910,7 @@
         <xdr:cNvPr id="14" name="Obrázok 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB7B07B5-FAE2-FB54-2448-E1CCD3E523B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7B07B5-FAE2-FB54-2448-E1CCD3E523B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,14 +1954,14 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>248</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>169677</xdr:rowOff>
+      <xdr:rowOff>12795</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Obrázok 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94490EEA-3500-4A23-96AC-19B01E18C0FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94490EEA-3500-4A23-96AC-19B01E18C0FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2010,7 @@
         <xdr:cNvPr id="4" name="Obrázok 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F91FD3D-CBAA-C8DC-12EB-C06FEB5CD61F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F91FD3D-CBAA-C8DC-12EB-C06FEB5CD61F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,15 +2306,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hárok1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22:R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -2360,10 +2360,10 @@
       <c r="A3" s="1"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -2373,10 +2373,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="26"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
@@ -2397,73 +2397,73 @@
     </row>
     <row r="6" spans="1:20" outlineLevel="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="1:20" outlineLevel="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="122"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:20" outlineLevel="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="122"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="9" spans="1:20" ht="31.5" customHeight="1" outlineLevel="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="126"/>
     </row>
     <row r="10" spans="1:20" ht="19.7" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="129"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" outlineLevel="1" thickBot="1">
       <c r="A11" s="2"/>
@@ -2511,25 +2511,25 @@
         <v>4</v>
       </c>
       <c r="L12" s="12"/>
-      <c r="M12" s="95" t="s">
+      <c r="M12" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="95" t="s">
+      <c r="N12" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="95" t="s">
+      <c r="O12" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="95" t="s">
+      <c r="P12" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="96" t="s">
+      <c r="Q12" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="95" t="s">
+      <c r="R12" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="S12" s="96" t="s">
+      <c r="S12" s="95" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2556,16 +2556,16 @@
       <c r="T13" s="17"/>
     </row>
     <row r="14" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="104"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="103"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -2602,7 +2602,7 @@
         <f>#REF!+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H16" s="70"/>
+      <c r="H16" s="69"/>
       <c r="I16" s="54" t="s">
         <v>37</v>
       </c>
@@ -2632,37 +2632,37 @@
       <c r="T17" s="9"/>
     </row>
     <row r="18" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="71" t="s">
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="9"/>
       <c r="T18" s="9"/>
     </row>
     <row r="19" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B19" s="84" t="e">
+      <c r="B19" s="83" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="72" t="e">
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="71" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2670,19 +2670,19 @@
       <c r="T19" s="9"/>
     </row>
     <row r="20" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B20" s="84" t="e">
+      <c r="B20" s="83" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="72" t="e">
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="71" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2690,19 +2690,19 @@
       <c r="T20" s="9"/>
     </row>
     <row r="21" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="84" t="e">
+      <c r="B21" s="83" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="72" t="e">
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="71" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2718,7 +2718,7 @@
       <c r="G22" s="62"/>
       <c r="H22" s="62"/>
       <c r="I22" s="61"/>
-      <c r="J22" s="92" t="s">
+      <c r="J22" s="91" t="s">
         <v>41</v>
       </c>
       <c r="K22" s="64" t="e">
@@ -2726,6 +2726,21 @@
         <v>#REF!</v>
       </c>
       <c r="L22" s="9"/>
+      <c r="M22" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="132" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" s="130" t="s">
+        <v>30</v>
+      </c>
       <c r="T22" s="9"/>
     </row>
     <row r="23" spans="2:20" ht="18.75" thickBot="1">
@@ -2740,22 +2755,34 @@
       <c r="J23" s="66"/>
       <c r="K23" s="67"/>
       <c r="L23" s="9"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="133"/>
+      <c r="O23" s="133"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="11"/>
       <c r="T23" s="9"/>
     </row>
     <row r="24" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="75"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
       <c r="L24" s="9"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
       <c r="T24" s="9"/>
     </row>
     <row r="25" spans="2:20" ht="15.75" thickBot="1">
@@ -2770,104 +2797,196 @@
       <c r="J25" s="18"/>
       <c r="K25" s="68"/>
       <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
       <c r="T25" s="9"/>
     </row>
     <row r="26" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="78"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="116"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="116"/>
+      <c r="R26" s="13"/>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
     </row>
     <row r="27" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B27" s="79"/>
-      <c r="C27" s="80" t="s">
+      <c r="B27" s="78"/>
+      <c r="C27" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="82" t="s">
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="K27" s="83">
+      <c r="K27" s="82">
         <f ca="1">TODAY()</f>
-        <v>45921</v>
+        <v>45925</v>
       </c>
       <c r="L27" s="9"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="47"/>
       <c r="K28" s="48"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="8"/>
     </row>
     <row r="29" spans="2:20" ht="19.5">
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="113"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="114"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="8"/>
     </row>
     <row r="30" spans="2:20" ht="15" customHeight="1">
       <c r="B30" s="47"/>
       <c r="K30" s="48"/>
-    </row>
-    <row r="31" spans="2:20">
+      <c r="M30" s="5"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="2:20" ht="15.75" thickBot="1">
       <c r="B31" s="47"/>
       <c r="K31" s="48"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="98"/>
+      <c r="R31" s="8"/>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="47"/>
       <c r="K32" s="48"/>
+      <c r="M32" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="137" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="110" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1">
       <c r="B33" s="47"/>
       <c r="K33" s="48"/>
-    </row>
-    <row r="34" spans="2:18" ht="15" customHeight="1">
+      <c r="M33" s="136"/>
+      <c r="N33" s="138"/>
+      <c r="O33" s="109"/>
+      <c r="P33" s="111"/>
+    </row>
+    <row r="34" spans="2:18" ht="15" customHeight="1" thickBot="1">
       <c r="B34" s="47"/>
       <c r="K34" s="48"/>
-    </row>
-    <row r="35" spans="2:18">
+      <c r="M34" s="99" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N34" s="99" t="e">
+        <f>G16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O34" s="14" t="e">
+        <f>N34-M34</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P34" s="15" t="e">
+        <f>O34/N34</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="26.25">
       <c r="B35" s="47"/>
       <c r="K35" s="48"/>
+      <c r="M35" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="P35" s="110" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="36" spans="2:18">
       <c r="B36" s="47"/>
       <c r="K36" s="48"/>
-    </row>
-    <row r="37" spans="2:18" ht="15.75" thickBot="1">
+      <c r="M36" s="105"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+    </row>
+    <row r="37" spans="2:18" ht="16.5" thickBot="1">
       <c r="B37" s="49"/>
       <c r="C37" s="50"/>
       <c r="D37" s="50"/>
@@ -2878,207 +2997,44 @@
       <c r="I37" s="50"/>
       <c r="J37" s="50"/>
       <c r="K37" s="51"/>
-    </row>
-    <row r="42" spans="2:18">
-      <c r="M42" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="O42" s="131" t="s">
-        <v>28</v>
-      </c>
-      <c r="P42" s="133" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q42" s="129" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18">
-      <c r="M43" s="130"/>
-      <c r="N43" s="132"/>
-      <c r="O43" s="132"/>
-      <c r="P43" s="133"/>
-      <c r="Q43" s="129"/>
-      <c r="R43" s="11"/>
-    </row>
-    <row r="44" spans="2:18">
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-    </row>
-    <row r="45" spans="2:18">
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-    </row>
-    <row r="46" spans="2:18">
-      <c r="M46" s="13"/>
-      <c r="N46" s="114" t="s">
-        <v>12</v>
-      </c>
-      <c r="O46" s="115"/>
-      <c r="P46" s="115"/>
-      <c r="Q46" s="115"/>
-      <c r="R46" s="13"/>
-    </row>
-    <row r="47" spans="2:18">
-      <c r="M47" s="13"/>
-      <c r="N47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18">
-      <c r="M48" s="5"/>
-      <c r="N48" s="97"/>
-      <c r="O48" s="98"/>
-      <c r="P48" s="99"/>
-      <c r="Q48" s="99"/>
-      <c r="R48" s="8"/>
-    </row>
-    <row r="49" spans="13:18">
-      <c r="M49" s="5"/>
-      <c r="N49" s="97"/>
-      <c r="O49" s="98"/>
-      <c r="P49" s="99"/>
-      <c r="Q49" s="99"/>
-      <c r="R49" s="8"/>
-    </row>
-    <row r="50" spans="13:18">
-      <c r="M50" s="5"/>
-      <c r="N50" s="97"/>
-      <c r="O50" s="98"/>
-      <c r="P50" s="99"/>
-      <c r="Q50" s="99"/>
-      <c r="R50" s="8"/>
-    </row>
-    <row r="51" spans="13:18" ht="15.75" thickBot="1">
-      <c r="M51" s="5"/>
-      <c r="N51" s="97"/>
-      <c r="O51" s="98"/>
-      <c r="P51" s="99"/>
-      <c r="Q51" s="99"/>
-      <c r="R51" s="8"/>
-    </row>
-    <row r="52" spans="13:18">
-      <c r="M52" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="N52" s="136" t="s">
-        <v>35</v>
-      </c>
-      <c r="O52" s="138" t="s">
-        <v>31</v>
-      </c>
-      <c r="P52" s="109" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="13:18">
-      <c r="M53" s="135"/>
-      <c r="N53" s="137"/>
-      <c r="O53" s="139"/>
-      <c r="P53" s="110"/>
-    </row>
-    <row r="54" spans="13:18" ht="16.5" thickBot="1">
-      <c r="M54" s="100" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N54" s="100" t="e">
-        <f>G16</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O54" s="14" t="e">
-        <f>N54-M54</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P54" s="15" t="e">
-        <f>O54/N54</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="55" spans="13:18" ht="26.25">
-      <c r="M55" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="N55" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="O55" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="P55" s="109" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="13:18">
-      <c r="M56" s="106"/>
-      <c r="N56" s="108"/>
-      <c r="O56" s="139"/>
-      <c r="P56" s="110"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-    </row>
-    <row r="57" spans="13:18" ht="16.5" thickBot="1">
-      <c r="M57" s="93">
-        <f>Q48+Q49+Q50+Q51</f>
+      <c r="M37" s="92">
+        <f>Q28+Q29+Q30+Q31</f>
         <v>0</v>
       </c>
-      <c r="N57" s="94" t="e">
+      <c r="N37" s="93" t="e">
         <f>J16</f>
         <v>#REF!</v>
       </c>
-      <c r="O57" s="14" t="e">
-        <f>N57-M57</f>
+      <c r="O37" s="14" t="e">
+        <f>N37-M37</f>
         <v>#REF!</v>
       </c>
-      <c r="P57" s="15" t="e">
-        <f>O57/N57</f>
+      <c r="P37" s="15" t="e">
+        <f>O37/N37</f>
         <v>#REF!</v>
       </c>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
     <mergeCell ref="B29:K29"/>
-    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N26:Q26"/>
     <mergeCell ref="D3:G4"/>
     <mergeCell ref="B6:K8"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="B10:K10"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
